--- a/TestDatas/TestSystem_api_Testcase.xlsx
+++ b/TestDatas/TestSystem_api_Testcase.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8460"/>
+    <workbookView windowWidth="14505" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
+    <sheet name="isregister" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>case_id</t>
   </si>
@@ -116,6 +117,27 @@
   </si>
   <si>
     <t>{"non_field_errors":["两次输入密码不正确"]}</t>
+  </si>
+  <si>
+    <t>用户未注册-count=0</t>
+  </si>
+  <si>
+    <t>/user/#username#/count/</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>{"username":"#username#","count":0}</t>
+  </si>
+  <si>
+    <t>用户已注册-count=1</t>
+  </si>
+  <si>
+    <t>/user/$username$/count/</t>
+  </si>
+  <si>
+    <t>{"username":"$username$","count":1}</t>
   </si>
 </sst>
 </file>
@@ -123,10 +145,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -138,59 +160,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,62 +212,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,9 +228,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,187 +312,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,21 +503,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -510,15 +517,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,17 +547,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -581,6 +568,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -589,10 +611,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,133 +623,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -735,10 +757,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1071,61 +1093,61 @@
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="23.625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="22.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="106" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="61.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="56" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="23.625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="22.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="106" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="61.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="56" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:10">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1137,48 +1159,48 @@
       <c r="D2" s="3">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>201</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:9">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>400</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -1186,60 +1208,60 @@
       </c>
     </row>
     <row r="4" ht="27" spans="1:10">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>20</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>201</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>400</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -1247,60 +1269,60 @@
       </c>
     </row>
     <row r="6" ht="27" spans="1:10">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>201</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:9">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>8</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>6</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>400</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -1308,28 +1330,28 @@
       </c>
     </row>
     <row r="8" ht="27" spans="1:9">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>6</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>5</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>400</v>
       </c>
       <c r="I8" s="5" t="s">
@@ -1337,60 +1359,60 @@
       </c>
     </row>
     <row r="9" ht="27" spans="1:10">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>6</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>20</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>201</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:9">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>6</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>21</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>400</v>
       </c>
       <c r="I10" s="5" t="s">
@@ -1398,32 +1420,126 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>6</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>6</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>400</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="27.125" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="39.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2">
+        <v>200</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2">
+        <v>200</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/TestDatas/TestSystem_api_Testcase.xlsx
+++ b/TestDatas/TestSystem_api_Testcase.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14505" windowHeight="8310"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
     <sheet name="isregister" sheetId="2" r:id="rId2"/>
+    <sheet name="is_email_register" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t>case_id</t>
   </si>
@@ -138,6 +139,24 @@
   </si>
   <si>
     <t>{"username":"$username$","count":1}</t>
+  </si>
+  <si>
+    <t>邮箱未注册-count=0</t>
+  </si>
+  <si>
+    <t>/user/#email#/count/</t>
+  </si>
+  <si>
+    <t>{"email":"#email#","count":0}</t>
+  </si>
+  <si>
+    <t>邮箱已注册-count=1</t>
+  </si>
+  <si>
+    <t>/user/$email$/count/</t>
+  </si>
+  <si>
+    <t>{"email":"$email$","count":1}</t>
   </si>
 </sst>
 </file>
@@ -145,10 +164,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -160,7 +179,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,135 +321,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -312,25 +331,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,6 +493,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -354,145 +511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,6 +522,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -524,82 +617,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,10 +630,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,133 +642,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,7 +1112,7 @@
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1460,7 +1479,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1546,4 +1565,87 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="39.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2">
+        <v>200</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2">
+        <v>200</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/TestDatas/TestSystem_api_Testcase.xlsx
+++ b/TestDatas/TestSystem_api_Testcase.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="8385" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
     <sheet name="isregister" sheetId="2" r:id="rId2"/>
     <sheet name="is_email_register" sheetId="3" r:id="rId3"/>
+    <sheet name="login" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="68">
   <si>
     <t>case_id</t>
   </si>
@@ -157,6 +158,69 @@
   </si>
   <si>
     <t>{"email":"$email$","count":1}</t>
+  </si>
+  <si>
+    <t>用户名已注册-密码正确-登录成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /user/login/</t>
+  </si>
+  <si>
+    <t>{ "username": "$username$", "password": "$password$" }</t>
+  </si>
+  <si>
+    <t>{ "token": "**", "user_id": $user_id$, "username": "$username$" }</t>
+  </si>
+  <si>
+    <t>SELECT * FROM auth_user WHERE username="$username$"</t>
+  </si>
+  <si>
+    <t>用户名未注册-登录失败</t>
+  </si>
+  <si>
+    <t>{ "username": "#username#", "password": "#password#" }</t>
+  </si>
+  <si>
+    <t>{"non_field_errors":["无法使用提供的认证信息登录。"]}</t>
+  </si>
+  <si>
+    <t>用户名已注册-密码错误-登录失败</t>
+  </si>
+  <si>
+    <t>{ "username": "$username$", "password": "#password#" }</t>
+  </si>
+  <si>
+    <t>用户名为null-返回“用户名不能为null”</t>
+  </si>
+  <si>
+    <t>{ "username": null, "password": "#password#" }</t>
+  </si>
+  <si>
+    <t>{"username":["该字段不能为 null。"]}</t>
+  </si>
+  <si>
+    <t>密码为null-返回“密码不能为null”</t>
+  </si>
+  <si>
+    <t>{ "username": "#username#", "password": null }</t>
+  </si>
+  <si>
+    <t>{"password":["该字段不能为 null。"]}</t>
+  </si>
+  <si>
+    <t>用户名为空字符串-返回“用户名不能为空”</t>
+  </si>
+  <si>
+    <t>{ "username": "", "password": "#password#" }</t>
+  </si>
+  <si>
+    <t>{"username":["该字段不能为空。"]}</t>
+  </si>
+  <si>
+    <t>密码名为空字符串-返回“密码不能为空”</t>
+  </si>
+  <si>
+    <t>{"password":["该字段不能为空。"]}</t>
   </si>
 </sst>
 </file>
@@ -300,8 +364,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,9 +379,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,6 +401,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -349,30 +437,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -385,48 +449,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -445,6 +509,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -457,7 +557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,48 +576,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,10 +694,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,115 +706,115 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -759,24 +823,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1112,22 +1179,22 @@
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="23.625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="22.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="106" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="61.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="56" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="23.625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="22.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="106" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="61.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="56" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1166,304 +1233,304 @@
       </c>
     </row>
     <row r="2" ht="27" spans="1:10">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="4">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>201</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:9">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>400</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:10">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>20</v>
       </c>
-      <c r="D4" s="2">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="3">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>201</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="D5" s="2">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="3">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>400</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:10">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>8</v>
       </c>
-      <c r="D6" s="2">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="3">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>201</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:9">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>8</v>
       </c>
-      <c r="D7" s="2">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="3">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>400</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:9">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="2">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3">
         <v>5</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:10">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="2">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
         <v>20</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>201</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:9">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="2">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" s="3">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
         <v>21</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>400</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1479,7 +1546,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1516,48 +1583,48 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>200</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>200</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1572,8 +1639,8 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1605,44 +1672,326 @@
       </c>
     </row>
     <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3">
+        <v>200</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="2" max="2" width="41.625" customWidth="1"/>
+    <col min="3" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="55.25" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="68.25" customWidth="1"/>
+    <col min="10" max="10" width="59.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="2">
-        <v>200</v>
+        <v>47</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2">
+        <v>201</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2">
-        <v>200</v>
+        <v>52</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2">
+        <v>201</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="2">
+        <v>201</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="2">
+        <v>201</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="2">
+        <v>201</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="2">
+        <v>201</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="2">
+        <v>201</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TestDatas/TestSystem_api_Testcase.xlsx
+++ b/TestDatas/TestSystem_api_Testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8385" activeTab="3"/>
+    <workbookView windowWidth="20325" windowHeight="11790" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
     <t>用户名已注册-密码正确-登录成功</t>
   </si>
   <si>
-    <t xml:space="preserve"> /user/login/</t>
+    <t>/user/login/</t>
   </si>
   <si>
     <t>{ "username": "$username$", "password": "$password$" }</t>
@@ -242,31 +242,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,8 +288,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,43 +379,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -395,6 +395,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -419,25 +443,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,12 +533,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -486,72 +552,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,6 +609,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,30 +686,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -694,10 +694,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,144 +706,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1179,22 +1176,22 @@
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="23.625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="22.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="106" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="61.375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="56" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="23.625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="22.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="106" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="61.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="56" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1233,304 +1230,304 @@
       </c>
     </row>
     <row r="2" ht="27" spans="1:10">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="3">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>201</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:9">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>5</v>
       </c>
-      <c r="D3" s="3">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>400</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:10">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>20</v>
       </c>
-      <c r="D4" s="3">
-        <v>6</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>201</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="3">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="2">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>400</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:10">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>8</v>
       </c>
-      <c r="D6" s="3">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="2">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>201</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:9">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>8</v>
       </c>
-      <c r="D7" s="3">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>400</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:9">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="3">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
         <v>5</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>400</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:10">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="3">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
         <v>20</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>201</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:9">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="3">
-        <v>6</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
         <v>21</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>400</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3">
-        <v>6</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>400</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1583,48 +1580,48 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>200</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>200</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1672,42 +1669,42 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>200</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>200</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1723,7 +1720,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1830,7 +1827,7 @@
         <v>53</v>
       </c>
       <c r="H3" s="2">
-        <v>201</v>
+        <v>400</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>54</v>
@@ -1861,7 +1858,7 @@
         <v>56</v>
       </c>
       <c r="H4" s="2">
-        <v>201</v>
+        <v>400</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>54</v>
@@ -1892,7 +1889,7 @@
         <v>58</v>
       </c>
       <c r="H5" s="2">
-        <v>201</v>
+        <v>400</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>59</v>
@@ -1923,7 +1920,7 @@
         <v>61</v>
       </c>
       <c r="H6" s="2">
-        <v>201</v>
+        <v>400</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>62</v>
@@ -1954,7 +1951,7 @@
         <v>64</v>
       </c>
       <c r="H7" s="2">
-        <v>201</v>
+        <v>400</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>65</v>
@@ -1985,7 +1982,7 @@
         <v>61</v>
       </c>
       <c r="H8" s="2">
-        <v>201</v>
+        <v>400</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>67</v>

--- a/TestDatas/TestSystem_api_Testcase.xlsx
+++ b/TestDatas/TestSystem_api_Testcase.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20325" windowHeight="11790" activeTab="3"/>
+    <workbookView windowWidth="19815" windowHeight="8460" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
     <sheet name="isregister" sheetId="2" r:id="rId2"/>
     <sheet name="is_email_register" sheetId="3" r:id="rId3"/>
     <sheet name="login" sheetId="4" r:id="rId4"/>
+    <sheet name="projects" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="136">
   <si>
     <t>case_id</t>
   </si>
@@ -221,6 +222,210 @@
   </si>
   <si>
     <t>{"password":["该字段不能为空。"]}</t>
+  </si>
+  <si>
+    <t>random_name_len</t>
+  </si>
+  <si>
+    <t>random_leader_len</t>
+  </si>
+  <si>
+    <t>random_tester_len</t>
+  </si>
+  <si>
+    <t>random_programmer_len</t>
+  </si>
+  <si>
+    <t>random_publish_app_len</t>
+  </si>
+  <si>
+    <t>random_desc_len</t>
+  </si>
+  <si>
+    <t>name长度为6，项目添加成功</t>
+  </si>
+  <si>
+    <t>/projects/</t>
+  </si>
+  <si>
+    <t>{ "name": "#name#", "leader": "#leader#", "tester": "#tester#", "programmer": "#programmer#", "publish_app": "#app#", "desc": "#desc#" }</t>
+  </si>
+  <si>
+    <t>{"id":#id#,"create_time":"#create_time#","name":"#name#","leader":"#leader#","tester":"#tester#","programmer":"#programmer#","publish_app":"#app#","desc":"#desc#"}</t>
+  </si>
+  <si>
+    <t>SELECT * FROM tb_projects WHERE name = "#name#"</t>
+  </si>
+  <si>
+    <t>name为null,项目添加失败</t>
+  </si>
+  <si>
+    <t>{ "name": null, "leader": "#leader#", "tester": "#tester#", "programmer": "#programmer#", "publish_app": "#app#", "desc": "#desc#" }</t>
+  </si>
+  <si>
+    <t>{"name":["该字段不能为 null。"]}</t>
+  </si>
+  <si>
+    <t>name为空字符串，项目添加失败</t>
+  </si>
+  <si>
+    <t>{ "name": "", "leader": "#leader#", "tester": "#tester#", "programmer": "#programmer#", "publish_app": "#app#", "desc": "#desc#" }</t>
+  </si>
+  <si>
+    <t>{"name":["该字段不能为空。"]}</t>
+  </si>
+  <si>
+    <t>name长度为200，项目添加成功</t>
+  </si>
+  <si>
+    <t>name长度为201，项目添加失败</t>
+  </si>
+  <si>
+    <t>{"name":["请确保这个字段不能超过 200 个字符。"]}</t>
+  </si>
+  <si>
+    <t>leader为null，项目添加失败</t>
+  </si>
+  <si>
+    <t>{ "name": "#name#", "leader": null, "tester": "#tester#", "programmer": "#programmer#", "publish_app": "#app#", "desc": "#desc#" }</t>
+  </si>
+  <si>
+    <t>{"leader":["该字段不能为 null。"]}</t>
+  </si>
+  <si>
+    <t>leader为空字符串，项目添加失败</t>
+  </si>
+  <si>
+    <t>{ "name": "#name#", "leader": "", "tester": "#tester#", "programmer": "#programmer#", "publish_app": "#app#", "desc": "#desc#" }</t>
+  </si>
+  <si>
+    <t>{"leader":["该字段不能为空。"]}</t>
+  </si>
+  <si>
+    <t>leader长度为50，项目添加成功</t>
+  </si>
+  <si>
+    <t>leader长度为51，项目添加失败</t>
+  </si>
+  <si>
+    <t>{"leader":["请确保这个字段不能超过 50 个字符。"]}</t>
+  </si>
+  <si>
+    <t>tester为null，项目添加失败</t>
+  </si>
+  <si>
+    <t>{ "name": "#name#", "leader": "#leader#", "tester": null, "programmer": "#programmer#", "publish_app": "#app#", "desc": "#desc#" }</t>
+  </si>
+  <si>
+    <t>{"tester":["该字段不能为 null。"]}</t>
+  </si>
+  <si>
+    <t>tester为空字符串，项目添加失败</t>
+  </si>
+  <si>
+    <t>{ "name": "#name#", "leader": "#leader#", "tester": "", "programmer": "#programmer#", "publish_app": "#app#", "desc": "#desc#" }</t>
+  </si>
+  <si>
+    <t>{"tester":["该字段不能为空。"]}</t>
+  </si>
+  <si>
+    <t>tester长度为50，项目添加成功</t>
+  </si>
+  <si>
+    <t>tester长度为51，项目添加失败</t>
+  </si>
+  <si>
+    <t>{"tester":["请确保这个字段不能超过 50 个字符。"]}</t>
+  </si>
+  <si>
+    <t>programmer为null，项目添加失败</t>
+  </si>
+  <si>
+    <t>{ "name": "#name#", "leader": "#leader#", "tester": "#tester#", "programmer": null, "publish_app": "#app#", "desc": "#desc#" }</t>
+  </si>
+  <si>
+    <t>{"programmer":["该字段不能为 null。"]}</t>
+  </si>
+  <si>
+    <t>programmer为空字符串，项目添加失败</t>
+  </si>
+  <si>
+    <t>{ "name": "#name#", "leader": "#leader#", "tester": "#tester#", "programmer": "", "publish_app": "#app#", "desc": "#desc#" }</t>
+  </si>
+  <si>
+    <t>{"programmer":["该字段不能为空。"]}</t>
+  </si>
+  <si>
+    <t>programmer长度为50，项目添加成功</t>
+  </si>
+  <si>
+    <t>progarmmer长度为51，项目添加失败</t>
+  </si>
+  <si>
+    <t>{"programmer":["请确保这个字段不能超过 50 个字符。"]}</t>
+  </si>
+  <si>
+    <t>publish_app为null，项目添加失败</t>
+  </si>
+  <si>
+    <t>{ "name": "#name#", "leader": "#leader#", "tester": "#tester#", "programmer": "#programmer#", "publish_app": null, "desc": "#desc#" }</t>
+  </si>
+  <si>
+    <t>{"publish_app":["该字段不能为 null。"]}</t>
+  </si>
+  <si>
+    <t>publish_app为空字符串，项目添加失败</t>
+  </si>
+  <si>
+    <t>{ "name": "#name#", "leader": "#leader#", "tester": "#tester#", "programmer": "#programmer#", "publish_app": "", "desc": "#desc#" }</t>
+  </si>
+  <si>
+    <t>{"publish_app":["该字段不能为空。"]}</t>
+  </si>
+  <si>
+    <t>publish_app长度为100，项目添加成功</t>
+  </si>
+  <si>
+    <t>publish_app长度为101，项目添加成功</t>
+  </si>
+  <si>
+    <t>{"publish_app":["请确保这个字段不能超过 100 个字符。"]}</t>
+  </si>
+  <si>
+    <t>decs为null，项目添加成功</t>
+  </si>
+  <si>
+    <t>{ "name": "#name#", "leader": "#leader#", "tester": "#tester#", "programmer": "#programmer#", "publish_app": "#app#", "desc":null }</t>
+  </si>
+  <si>
+    <t>{"id":#id#,"create_time":"#create_time#","name":"#name#","leader":"#leader#","tester":"#tester#","programmer":"#programmer#","publish_app":"#app#","desc":null}</t>
+  </si>
+  <si>
+    <t>decs为空字符串，项目添加成功</t>
+  </si>
+  <si>
+    <t>{ "name": "#name#", "leader": "#leader#", "tester": "#tester#", "programmer": "#programmer#", "publish_app": "#app#", "desc":"" }</t>
+  </si>
+  <si>
+    <t>{"id":#id#,"create_time":"#create_time#","name":"#name#","leader":"#leader#","tester":"#tester#","programmer":"#programmer#","publish_app":"#app#","desc":""}</t>
+  </si>
+  <si>
+    <t>decs长度为200，项目添加成功</t>
+  </si>
+  <si>
+    <t>decs长度为201，项目添加失败</t>
+  </si>
+  <si>
+    <t>{"desc":["请确保这个字段不能超过 200 个字符。"]}</t>
+  </si>
+  <si>
+    <t>name重复，项目添加失败</t>
+  </si>
+  <si>
+    <t>{ "name": "$name$", "leader": "#leader#", "tester": "#tester#", "programmer": "#programmer#", "publish_app": "#app#", "desc": "#desc#" }</t>
+  </si>
+  <si>
+    <t>{"name":["具有 项目名称 的 项目信息 已存在。"]}</t>
   </si>
 </sst>
 </file>
@@ -239,6 +444,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,14 +485,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -301,13 +505,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -347,19 +544,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -379,6 +568,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -392,6 +597,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -515,6 +726,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -528,30 +757,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,6 +791,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -637,36 +857,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -686,6 +876,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -694,10 +899,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,145 +911,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1176,358 +1389,358 @@
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="23.625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="22.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="106" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="61.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="56" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="23.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="22.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="106" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="61.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="56" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:10">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="5">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>201</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:9">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="1">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>400</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:10">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>20</v>
       </c>
-      <c r="D4" s="2">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>201</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="2">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="1">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>400</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:10">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>8</v>
       </c>
-      <c r="D6" s="2">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="1">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>201</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:9">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>8</v>
       </c>
-      <c r="D7" s="2">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>400</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:9">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="2">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>400</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:10">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="2">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
         <v>20</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>201</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:9">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="2">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
         <v>21</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>400</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2">
-        <v>6</v>
-      </c>
-      <c r="D11" s="2">
-        <v>6</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>400</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1557,71 +1770,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>200</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>200</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1649,62 +1862,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>200</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>200</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1719,8 +1932,8 @@
   <sheetPr/>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1737,258 +1950,1430 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1">
+        <v>201</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="1">
+        <v>400</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="1">
+        <v>400</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="1">
+        <v>400</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="1">
+        <v>400</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="1">
+        <v>400</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="1">
+        <v>400</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="2" max="2" width="34.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="19.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="7.375" customWidth="1"/>
+    <col min="11" max="11" width="133.5" customWidth="1"/>
+    <col min="12" max="12" width="12.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="181.5" customWidth="1"/>
+    <col min="14" max="14" width="52.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="2">
+        <v>74</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="1">
+        <v>201</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="1">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="1">
+        <v>400</v>
+      </c>
+      <c r="M3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="1">
+        <v>400</v>
+      </c>
+      <c r="M4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="1">
+        <v>200</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="1">
         <v>201</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="M5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="1">
+        <v>201</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="1">
+        <v>400</v>
+      </c>
+      <c r="M6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="1">
+        <v>400</v>
+      </c>
+      <c r="M7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="1">
+        <v>400</v>
+      </c>
+      <c r="M8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
         <v>50</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="1">
+        <v>201</v>
+      </c>
+      <c r="M9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
         <v>51</v>
       </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="2">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="E10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="1">
         <v>400</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="M10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="2">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="F11" s="1">
+        <v>6</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="1">
         <v>400</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="M11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="1">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="2">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="F12" s="1">
+        <v>6</v>
+      </c>
+      <c r="G12" s="1">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="1">
         <v>400</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="2">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="M12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="1">
+        <v>201</v>
+      </c>
+      <c r="M13" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1">
+        <v>51</v>
+      </c>
+      <c r="F14" s="1">
+        <v>6</v>
+      </c>
+      <c r="G14" s="1">
+        <v>6</v>
+      </c>
+      <c r="H14" s="1">
+        <v>6</v>
+      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="1">
+        <v>400</v>
+      </c>
+      <c r="M14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G15" s="1">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s">
+        <v>107</v>
+      </c>
+      <c r="L15" s="1">
         <v>400</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="M15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="2">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="G16" s="1">
+        <v>6</v>
+      </c>
+      <c r="H16" s="1">
+        <v>6</v>
+      </c>
+      <c r="I16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="1">
         <v>400</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="M16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1">
+        <v>50</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6</v>
+      </c>
+      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="1">
+        <v>201</v>
+      </c>
+      <c r="M17" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1">
+        <v>51</v>
+      </c>
+      <c r="G18" s="1">
+        <v>6</v>
+      </c>
+      <c r="H18" s="1">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="1">
+        <v>400</v>
+      </c>
+      <c r="M18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1">
+        <v>6</v>
+      </c>
+      <c r="G19" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="H19" s="1">
+        <v>6</v>
+      </c>
+      <c r="I19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" s="1">
         <v>400</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="M19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="1">
+        <v>400</v>
+      </c>
+      <c r="M20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6</v>
+      </c>
+      <c r="F21" s="1">
+        <v>6</v>
+      </c>
+      <c r="G21" s="1">
+        <v>100</v>
+      </c>
+      <c r="H21" s="1">
+        <v>6</v>
+      </c>
+      <c r="I21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" s="1">
+        <v>201</v>
+      </c>
+      <c r="M21" t="s">
+        <v>77</v>
+      </c>
+      <c r="N21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6</v>
+      </c>
+      <c r="G22" s="1">
+        <v>101</v>
+      </c>
+      <c r="H22" s="1">
+        <v>6</v>
+      </c>
+      <c r="I22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" s="1">
+        <v>400</v>
+      </c>
+      <c r="M22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1">
+        <v>6</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6</v>
+      </c>
+      <c r="G23" s="1">
+        <v>6</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s">
+        <v>125</v>
+      </c>
+      <c r="L23" s="1">
+        <v>201</v>
+      </c>
+      <c r="M23" t="s">
+        <v>126</v>
+      </c>
+      <c r="N23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1">
+        <v>6</v>
+      </c>
+      <c r="F24" s="1">
+        <v>6</v>
+      </c>
+      <c r="G24" s="1">
+        <v>6</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s">
+        <v>128</v>
+      </c>
+      <c r="L24" s="1">
+        <v>201</v>
+      </c>
+      <c r="M24" t="s">
+        <v>129</v>
+      </c>
+      <c r="N24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="1">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1">
+        <v>6</v>
+      </c>
+      <c r="F25" s="1">
+        <v>6</v>
+      </c>
+      <c r="G25" s="1">
+        <v>6</v>
+      </c>
+      <c r="H25" s="1">
+        <v>200</v>
+      </c>
+      <c r="I25" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" t="s">
+        <v>76</v>
+      </c>
+      <c r="L25" s="1">
+        <v>201</v>
+      </c>
+      <c r="M25" t="s">
+        <v>77</v>
+      </c>
+      <c r="N25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="1">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1">
+        <v>6</v>
+      </c>
+      <c r="F26" s="1">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1">
+        <v>6</v>
+      </c>
+      <c r="H26" s="1">
+        <v>201</v>
+      </c>
+      <c r="I26" t="s">
+        <v>75</v>
+      </c>
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" t="s">
+        <v>76</v>
+      </c>
+      <c r="L26" s="1">
+        <v>400</v>
+      </c>
+      <c r="M26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1">
+        <v>6</v>
+      </c>
+      <c r="F27" s="1">
+        <v>6</v>
+      </c>
+      <c r="G27" s="1">
+        <v>6</v>
+      </c>
+      <c r="H27" s="1">
+        <v>6</v>
+      </c>
+      <c r="I27" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s">
+        <v>134</v>
+      </c>
+      <c r="L27" s="1">
+        <v>400</v>
+      </c>
+      <c r="M27" t="s">
+        <v>135</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TestDatas/TestSystem_api_Testcase.xlsx
+++ b/TestDatas/TestSystem_api_Testcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8460" activeTab="4"/>
+    <workbookView windowWidth="19815" windowHeight="8460" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="is_email_register" sheetId="3" r:id="rId3"/>
     <sheet name="login" sheetId="4" r:id="rId4"/>
     <sheet name="projects" sheetId="5" r:id="rId5"/>
+    <sheet name="interfaces" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="168">
   <si>
     <t>case_id</t>
   </si>
@@ -426,6 +427,102 @@
   </si>
   <si>
     <t>{"name":["具有 项目名称 的 项目信息 已存在。"]}</t>
+  </si>
+  <si>
+    <t>6位接口名称-接口添加成功</t>
+  </si>
+  <si>
+    <t>/interfaces/</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{ "name": "#name#", "tester": "#tester#", "project_id": #project_id#, "desc": "#desc#" }</t>
+  </si>
+  <si>
+    <t>{"id":#id#,"name":"#name#","tester":"#tester#","project":"#project_name#","project_id":#project_id#,"desc":"#desc#","create_time":"#create_time#"}</t>
+  </si>
+  <si>
+    <t>SELECT tb_interfaces.id,tb_interfaces.create_time,tb_projects.`name` FROM tb_interfaces,tb_projects WHERE tb_interfaces.project_id=tb_projects.id AND tb_projects.id=#project_id# AND tb_interfaces.`name`="#name#"</t>
+  </si>
+  <si>
+    <t>200位接口名称-接口添加成功</t>
+  </si>
+  <si>
+    <t>201位接口名称-接口添加失败</t>
+  </si>
+  <si>
+    <t>接口名称为null-接口添加失败</t>
+  </si>
+  <si>
+    <t>{ "name": null, "tester": "#tester#", "project_id": #project_id#, "desc": "#desc#" }</t>
+  </si>
+  <si>
+    <t>接口名称为空字符串-接口添加失败</t>
+  </si>
+  <si>
+    <t>{ "name": "", "tester": "#tester#", "project_id": #project_id#, "desc": "#desc#" }</t>
+  </si>
+  <si>
+    <t>接口名称重复-接口添加失败</t>
+  </si>
+  <si>
+    <t>{ "name": "$name$", "tester": "#tester#", "project_id": #project_id#, "desc": "#desc#" }</t>
+  </si>
+  <si>
+    <t>{"name":["具有 接口名称 的 接口信息 已存在。"]}</t>
+  </si>
+  <si>
+    <t>50位tester字符，项目添加成功</t>
+  </si>
+  <si>
+    <t>51位tester字符，项目添加失败</t>
+  </si>
+  <si>
+    <t>tester为null,项目添加失败</t>
+  </si>
+  <si>
+    <t>{ "name": "#name#", "tester": null, "project_id": #project_id#, "desc": "#desc#" }</t>
+  </si>
+  <si>
+    <t>tester为空,项目添加失败</t>
+  </si>
+  <si>
+    <t>{ "name": "#name#", "tester": "", "project_id": #project_id#, "desc": "#desc#" }</t>
+  </si>
+  <si>
+    <t>project_id不存在,项目添加失败</t>
+  </si>
+  <si>
+    <t>{ "name": "#name#", "tester": "#tester#", "project_id": $project_id$, "desc": "#desc#" }</t>
+  </si>
+  <si>
+    <t>{"project_id":["无效主键 “$project_id$” － 对象不存在。"]}</t>
+  </si>
+  <si>
+    <t>200位描述字符，项目添加成功</t>
+  </si>
+  <si>
+    <t>201位描述字符，项目添加成功</t>
+  </si>
+  <si>
+    <t>描述字符为null,项目添加成功</t>
+  </si>
+  <si>
+    <t>{ "name": "#name#", "tester": "#tester#", "project_id": #project_id#, "desc": null }</t>
+  </si>
+  <si>
+    <t>{"id":#id#,"name":"#name#","tester":"#tester#","project":"#project_name#","project_id":#project_id#,"desc":null,"create_time":"#create_time#"}</t>
+  </si>
+  <si>
+    <t>描述字符为空字符串,项目添加成功</t>
+  </si>
+  <si>
+    <t>{ "name": "#name#", "tester": "#tester#", "project_id": #project_id#, "desc": ""}</t>
+  </si>
+  <si>
+    <t>{"id":#id#,"name":"#name#","tester":"#tester#","project":"#project_name#","project_id":#project_id#,"desc":"","create_time":"#create_time#"}</t>
   </si>
 </sst>
 </file>
@@ -433,8 +530,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -448,45 +545,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,7 +568,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,9 +666,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,48 +680,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,13 +697,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,18 +715,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -648,7 +727,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,7 +811,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,19 +829,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,49 +853,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,13 +871,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,21 +888,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -834,25 +916,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,16 +966,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,10 +996,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -911,10 +1008,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -923,140 +1020,149 @@
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1446,13 +1552,13 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2" s="8">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1467,7 +1573,7 @@
       <c r="H2" s="1">
         <v>201</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -1478,7 +1584,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1">
@@ -1499,7 +1605,7 @@
       <c r="H3" s="1">
         <v>400</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1507,7 +1613,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="1">
@@ -1528,7 +1634,7 @@
       <c r="H4" s="1">
         <v>201</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -1560,7 +1666,7 @@
       <c r="H5" s="1">
         <v>400</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1568,7 +1674,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="1">
@@ -1589,7 +1695,7 @@
       <c r="H6" s="1">
         <v>201</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1600,7 +1706,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="1">
@@ -1621,7 +1727,7 @@
       <c r="H7" s="1">
         <v>400</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1629,7 +1735,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="1">
@@ -1650,7 +1756,7 @@
       <c r="H8" s="1">
         <v>400</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1658,7 +1764,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="1">
@@ -1679,7 +1785,7 @@
       <c r="H9" s="1">
         <v>201</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -1690,7 +1796,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="1">
@@ -1711,7 +1817,7 @@
       <c r="H10" s="1">
         <v>400</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1740,7 +1846,7 @@
       <c r="H11" s="1">
         <v>400</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1756,7 +1862,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -2214,14 +2320,14 @@
   <sheetPr/>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="M1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.375" customWidth="1"/>
-    <col min="2" max="2" width="34.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.625" style="7" customWidth="1"/>
     <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
     <col min="4" max="5" width="19.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.75" style="1" customWidth="1"/>
@@ -2286,7 +2392,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>74</v>
       </c>
       <c r="C2" s="1">
@@ -2330,7 +2436,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C3" s="1">
@@ -2371,7 +2477,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C4" s="1">
@@ -2412,7 +2518,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C5" s="1">
@@ -2456,7 +2562,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>86</v>
       </c>
       <c r="C6" s="1">
@@ -2497,7 +2603,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>88</v>
       </c>
       <c r="C7" s="1">
@@ -2538,7 +2644,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="1">
@@ -2579,7 +2685,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="1">
@@ -2623,7 +2729,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="7" t="s">
         <v>95</v>
       </c>
       <c r="C10" s="1">
@@ -2664,7 +2770,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="7" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="1">
@@ -2705,7 +2811,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C12" s="1">
@@ -2746,7 +2852,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="7" t="s">
         <v>103</v>
       </c>
       <c r="C13" s="1">
@@ -2790,7 +2896,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="7" t="s">
         <v>104</v>
       </c>
       <c r="C14" s="1">
@@ -2831,7 +2937,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="7" t="s">
         <v>106</v>
       </c>
       <c r="C15" s="1">
@@ -2872,7 +2978,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C16" s="1">
@@ -2913,7 +3019,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="7" t="s">
         <v>112</v>
       </c>
       <c r="C17" s="1">
@@ -2957,7 +3063,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="7" t="s">
         <v>113</v>
       </c>
       <c r="C18" s="1">
@@ -2998,7 +3104,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="7" t="s">
         <v>115</v>
       </c>
       <c r="C19" s="1">
@@ -3039,7 +3145,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="7" t="s">
         <v>118</v>
       </c>
       <c r="C20" s="1">
@@ -3080,7 +3186,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="7" t="s">
         <v>121</v>
       </c>
       <c r="C21" s="1">
@@ -3124,7 +3230,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="7" t="s">
         <v>122</v>
       </c>
       <c r="C22" s="1">
@@ -3165,7 +3271,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="7" t="s">
         <v>124</v>
       </c>
       <c r="C23" s="1">
@@ -3209,7 +3315,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="7" t="s">
         <v>127</v>
       </c>
       <c r="C24" s="1">
@@ -3253,7 +3359,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C25" s="1">
@@ -3297,7 +3403,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="7" t="s">
         <v>131</v>
       </c>
       <c r="C26" s="1">
@@ -3338,7 +3444,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="7" t="s">
         <v>133</v>
       </c>
       <c r="C27" s="1">
@@ -3373,6 +3479,573 @@
       </c>
       <c r="M27" t="s">
         <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="32.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="91" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="146.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="74.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:12">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="1:11">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="2">
+        <v>201</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:11">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="2">
+        <v>200</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I3" s="2">
+        <v>201</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="2">
+        <v>201</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="2">
+        <v>400</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" s="2">
+        <v>400</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" s="2">
+        <v>400</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I7" s="2">
+        <v>400</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="1:11">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I8" s="2">
+        <v>201</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>51</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" s="2">
+        <v>400</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I10" s="2">
+        <v>400</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="2">
+        <v>400</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I12" s="2">
+        <v>400</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" spans="1:11">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2">
+        <v>200</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I13" s="2">
+        <v>201</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>201</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" s="2">
+        <v>400</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" ht="40.5" spans="1:11">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I15" s="2">
+        <v>201</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" ht="40.5" spans="1:11">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I16" s="2">
+        <v>201</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
